--- a/src/main/resources/templates/report/template.xlsx
+++ b/src/main/resources/templates/report/template.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
-  <workbookPr showObjects="none" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shingo/develop/sandbox/etc/jxls-sample/src/main/resources/templates/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133BAEFF-B436-B642-9923-203A8FE46F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9812EBA-6C69-A140-ABDE-C20A69537A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{B3EC2514-B971-AE46-BD81-23E6E6792030}"/>
   </bookViews>
@@ -18,8 +18,9 @@
     <sheet name="if" sheetId="5" r:id="rId3"/>
     <sheet name="each+if" sheetId="3" r:id="rId4"/>
     <sheet name="カスタムコマンド" sheetId="6" r:id="rId5"/>
+    <sheet name="each-multisheet" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -184,8 +185,27 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E51F1197-1AB7-1743-AB4E-3D19E6419433}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E51F1197-1AB7-1743-AB4E-3D19E6419433}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    jx:area(lastCell="Z100")
+jx:each(multisheet="sheetNames" items="details" var="detail" lastCell="Z100")</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>${text}</t>
     <phoneticPr fontId="2"/>
@@ -298,6 +318,14 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>jx:each - multisheet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -305,7 +333,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="179" formatCode="General\ &quot;人&quot;"/>
+    <numFmt numFmtId="176" formatCode="General\ &quot;人&quot;"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -387,7 +415,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -409,10 +437,7 @@
     <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -827,6 +852,15 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment6.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2024-09-22T03:27:43.59" personId="{8AB23D77-E043-734E-AE6D-30910920CD93}" id="{E51F1197-1AB7-1743-AB4E-3D19E6419433}">
+    <text>jx:area(lastCell="Z100")
+jx:each(multisheet="sheetNames" items="details" var="detail" lastCell="Z100")</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77443270-C9B0-9E4B-8E1E-3AD42A447BDB}">
   <dimension ref="A1:A10"/>
@@ -920,7 +954,7 @@
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <f>COUNTA(B4)</f>
         <v>1</v>
       </c>
@@ -970,18 +1004,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F4C64F-EA73-A444-8E9B-DE800C21AB93}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="183" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,7 +1026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1003,10 +1037,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4">
+    <row r="5" spans="1:3"/>
+    <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -1054,4 +1086,55 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EF74E6-440D-E245-AEC0-1623B8024D89}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="156" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>